--- a/Example_file.xlsx
+++ b/Example_file.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6755BF89-40D4-4D91-9C83-C084547583A4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58581D24-5C6C-4696-9E4C-4745B244B607}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -28,38 +28,47 @@
     <t>Getränkeliste Küche 3.1</t>
   </si>
   <si>
-    <t>eingezahlt</t>
-  </si>
-  <si>
     <t>Guthaben</t>
-  </si>
-  <si>
-    <t>Zimmer Nr.</t>
-  </si>
-  <si>
-    <t>Bier/Radler</t>
-  </si>
-  <si>
-    <t>Mate/ACE/Pali</t>
   </si>
   <si>
     <t>Spezi</t>
   </si>
   <si>
-    <t>Sonstiges</t>
+    <t>Mate</t>
   </si>
   <si>
-    <t>extern</t>
+    <t>Pali</t>
   </si>
   <si>
-    <t>Untermieter</t>
+    <t>Bier</t>
+  </si>
+  <si>
+    <t>Radler</t>
+  </si>
+  <si>
+    <t>#B</t>
+  </si>
+  <si>
+    <t>#R</t>
+  </si>
+  <si>
+    <t>#M</t>
+  </si>
+  <si>
+    <t>#P</t>
+  </si>
+  <si>
+    <t>#S</t>
+  </si>
+  <si>
+    <t>Zimmer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,16 +76,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -84,12 +115,180 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -370,64 +569,865 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="9"/>
+    <col min="3" max="3" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="13" width="4" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
+      <c r="G2" s="22" t="s">
+        <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="H2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+      <c r="J2" s="22" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+      <c r="K2" s="22" t="s">
         <v>10</v>
       </c>
+      <c r="L2" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="4" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+    </row>
+    <row r="4" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+    </row>
+    <row r="5" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+    </row>
+    <row r="6" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+    </row>
+    <row r="8" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+    </row>
+    <row r="9" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+    </row>
+    <row r="10" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+    </row>
+    <row r="11" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+    </row>
+    <row r="13" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+    </row>
+    <row r="14" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+    </row>
+    <row r="15" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+    </row>
+    <row r="16" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+    </row>
+    <row r="17" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+    </row>
+    <row r="18" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+    </row>
+    <row r="19" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+    </row>
+    <row r="20" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+    </row>
+    <row r="21" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+    </row>
+    <row r="22" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+    </row>
+    <row r="23" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+    </row>
+    <row r="24" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+    </row>
+    <row r="25" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+    </row>
+    <row r="26" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+    </row>
+    <row r="27" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+    </row>
+    <row r="28" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+    </row>
+    <row r="29" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+    </row>
+    <row r="30" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+    </row>
+    <row r="31" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+    </row>
+    <row r="32" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+    </row>
+    <row r="33" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+    </row>
+    <row r="34" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="9"/>
+      <c r="C34" s="5"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+    </row>
+    <row r="35" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="9"/>
+      <c r="C35" s="5"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+    </row>
+    <row r="36" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="9"/>
+      <c r="C36" s="5"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+    </row>
+    <row r="37" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="9"/>
+      <c r="C37" s="5"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+    </row>
+    <row r="38" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="9"/>
+      <c r="C38" s="5"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+    </row>
+    <row r="39" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="9"/>
+      <c r="C39" s="5"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+    </row>
+    <row r="40" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="9"/>
+      <c r="C40" s="5"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+    </row>
+    <row r="41" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="9"/>
+      <c r="C41" s="5"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+    </row>
+    <row r="42" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="9"/>
+      <c r="C42" s="5"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+    </row>
+    <row r="43" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="9"/>
+      <c r="C43" s="5"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+    </row>
+    <row r="44" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="9"/>
+      <c r="C44" s="5"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+    </row>
+    <row r="45" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="9"/>
+      <c r="C45" s="5"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+    </row>
+    <row r="46" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="9"/>
+      <c r="C46" s="5"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+    </row>
+    <row r="47" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="9"/>
+      <c r="C47" s="5"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+    </row>
+    <row r="48" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="9"/>
+      <c r="C48" s="5"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+    </row>
+    <row r="49" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="9"/>
+      <c r="C49" s="5"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+    </row>
+    <row r="50" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="9"/>
+      <c r="C50" s="5"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+    </row>
+    <row r="51" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="9"/>
+      <c r="C51" s="5"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+    </row>
+    <row r="52" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="9"/>
+      <c r="C52" s="5"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+    </row>
+    <row r="53" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="9"/>
+      <c r="C53" s="5"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+    </row>
+    <row r="54" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="9"/>
+      <c r="C54" s="5"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+    </row>
+    <row r="55" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="9"/>
+      <c r="C55" s="5"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+    </row>
+    <row r="56" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="9"/>
+      <c r="C56" s="5"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+    </row>
+    <row r="57" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="9"/>
+      <c r="C57" s="5"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+    </row>
+    <row r="58" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="9"/>
+      <c r="C58" s="5"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+    </row>
+    <row r="59" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="9"/>
+      <c r="C59" s="5"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+    </row>
+    <row r="60" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="9"/>
+      <c r="C60" s="5"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+    </row>
+    <row r="61" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="9"/>
+      <c r="C61" s="5"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+    </row>
+    <row r="62" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="9"/>
+      <c r="C62" s="5"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+    </row>
+    <row r="63" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="9"/>
+      <c r="C63" s="5"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+    </row>
+    <row r="64" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="9"/>
+      <c r="C64" s="5"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+    </row>
+    <row r="65" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="9"/>
+      <c r="C65" s="5"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+    </row>
+    <row r="66" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="9"/>
+      <c r="C66" s="5"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+    </row>
+    <row r="67" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="9"/>
+      <c r="C67" s="5"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+    </row>
+    <row r="68" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="9"/>
+      <c r="C68" s="5"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Example_file.xlsx
+++ b/Example_file.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58581D24-5C6C-4696-9E4C-4745B244B607}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE8CED7-1E14-4952-A602-81C2F83FA76A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,7 +93,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,8 +106,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -219,11 +225,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -256,6 +299,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -265,29 +332,14 @@
     <xf numFmtId="2" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -572,7 +624,7 @@
   <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="K1" sqref="K1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,73 +642,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="M2" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="4" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
     </row>
     <row r="4" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>

--- a/Example_file.xlsx
+++ b/Example_file.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE8CED7-1E14-4952-A602-81C2F83FA76A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D84184-D8FC-4670-99D1-4D71C195ACD6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>Getränkeliste Küche 3.1</t>
-  </si>
-  <si>
-    <t>Guthaben</t>
   </si>
   <si>
     <t>Spezi</t>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>Zimmer</t>
+  </si>
+  <si>
+    <t>€</t>
   </si>
 </sst>
 </file>
@@ -266,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -317,12 +317,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -331,15 +337,6 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -623,76 +620,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:M1"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="9"/>
-    <col min="3" max="3" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="13" width="4" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="4" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4" style="8" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="27"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="23"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="19" t="s">
+      <c r="I2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="19" t="s">
+      <c r="J2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="K2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="L2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="M2" s="20" t="s">
         <v>11</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="4" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
